--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\HOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F45B545-2B5C-4709-A9B3-53A6EDF8F65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D914E-48BA-4FD1-B8AF-74A2C165F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,7 +497,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
+++ b/InputData/elec/HOC/HOC Hydro Opportunity Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\HOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\HOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F45B545-2B5C-4709-A9B3-53A6EDF8F65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5139F-F7C4-4BED-BCC6-E21B51640533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
+    <workbookView xWindow="33000" yWindow="2040" windowWidth="21600" windowHeight="12525" activeTab="1" xr2:uid="{8AA2DA0F-B30C-412A-A55D-748BA994FC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,14 +436,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -459,27 +459,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -497,25 +497,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
